--- a/Users Loads8.xlsx
+++ b/Users Loads8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2611572950989541</v>
+        <v>0.2026273589480514</v>
       </c>
       <c r="C2" t="n">
-        <v>6.36366074139722</v>
+        <v>5.790946674194776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7337085649955335</v>
+        <v>0.3644958635555708</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.69125140687775</v>
+        <v>1.720705585540125</v>
       </c>
       <c r="C3" t="n">
-        <v>4.889392390376836</v>
+        <v>4.550539281666216</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3340447513861966</v>
+        <v>0.328489311104641</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.707060442369118</v>
+        <v>10.86542836848341</v>
       </c>
       <c r="C4" t="n">
-        <v>2.374456587226308</v>
+        <v>9.987008450824128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3198061781447739</v>
+        <v>0.5329524026651681</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.38019928215811</v>
+        <v>14.12085951142546</v>
       </c>
       <c r="C5" t="n">
-        <v>5.741186253465431</v>
+        <v>8.718389673971856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4596385445118406</v>
+        <v>0.2304462752690826</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.43237530512386</v>
+        <v>18.54569580576124</v>
       </c>
       <c r="C6" t="n">
-        <v>2.75883560457726</v>
+        <v>7.236612430362507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5245087717130789</v>
+        <v>0.3792164797155556</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.76806116289792</v>
+        <v>24.74749942916494</v>
       </c>
       <c r="C7" t="n">
-        <v>5.315620504769416</v>
+        <v>10.82619504459071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.493033444497267</v>
+        <v>0.4502884822836828</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.36691439388997</v>
+        <v>31.10696099482764</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166221163914775</v>
+        <v>4.005959477111173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41406375147821</v>
+        <v>0.0747147506955927</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.43575560524805</v>
+        <v>35.67254469507706</v>
       </c>
       <c r="C9" t="n">
-        <v>6.270951993357151</v>
+        <v>7.564909028828096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5612927828032019</v>
+        <v>0.1892333047229356</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.04614597221435</v>
+        <v>41.80448780991947</v>
       </c>
       <c r="C10" t="n">
-        <v>5.696450999982826</v>
+        <v>5.431198425449903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8620047407538377</v>
+        <v>0.2250128581718788</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.82116716364132</v>
+        <v>43.33604704196109</v>
       </c>
       <c r="C11" t="n">
-        <v>5.679024727921018</v>
+        <v>5.996692196512966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6244226776520508</v>
+        <v>0.316432757970213</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.4628590653857</v>
+        <v>53.06793091797744</v>
       </c>
       <c r="C12" t="n">
-        <v>7.891543402876565</v>
+        <v>8.061950858990803</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4700869461911037</v>
+        <v>0.441605250373063</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.69574535486958</v>
+        <v>53.34005495461699</v>
       </c>
       <c r="C13" t="n">
-        <v>7.723752394777472</v>
+        <v>4.215701877751046</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6608939297607463</v>
+        <v>0.2090934964048383</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.95503440374582</v>
+        <v>53.48285849553594</v>
       </c>
       <c r="C14" t="n">
-        <v>4.89139757582659</v>
+        <v>1.528292851202912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8123949776617462</v>
+        <v>0.1141314868960111</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24.42684582894927</v>
+        <v>54.17493657325141</v>
       </c>
       <c r="C15" t="n">
-        <v>4.740772216875978</v>
+        <v>9.882489952717414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.520539283369625</v>
+        <v>0.2932288303400085</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.33685970862744</v>
+        <v>63.65128522677124</v>
       </c>
       <c r="C16" t="n">
-        <v>7.033491999215697</v>
+        <v>12.57063357237686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.453165038919166</v>
+        <v>0.3860344086458192</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.91701993526416</v>
+        <v>64.08855561583285</v>
       </c>
       <c r="C17" t="n">
-        <v>4.234811393612167</v>
+        <v>3.837378377402847</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4843796269993379</v>
+        <v>0.1570724488962782</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.94268467661343</v>
+        <v>65.04666965590204</v>
       </c>
       <c r="C18" t="n">
-        <v>8.269993687812152</v>
+        <v>3.856939518041278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6564096738781638</v>
+        <v>0.4284051553088565</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.78917078097435</v>
+        <v>67.6914319881564</v>
       </c>
       <c r="C19" t="n">
-        <v>6.820343245364197</v>
+        <v>1.969468132671135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.352977927165623</v>
+        <v>0.282231328672108</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.55772272484495</v>
+        <v>73.95321595299497</v>
       </c>
       <c r="C20" t="n">
-        <v>7.576102752636989</v>
+        <v>1.812777335851871</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2956715056938283</v>
+        <v>0.1582884526844132</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.71192592966043</v>
+        <v>75.16626479918031</v>
       </c>
       <c r="C21" t="n">
-        <v>5.654714226533603</v>
+        <v>3.341520114000224</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6661913936156764</v>
+        <v>0.176244826628273</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32.18617071787047</v>
+        <v>75.83539011141673</v>
       </c>
       <c r="C22" t="n">
-        <v>6.207918673148653</v>
+        <v>8.41877653175875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5577607304087042</v>
+        <v>0.3152545038999839</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.7312077118601</v>
+        <v>77.76326102813302</v>
       </c>
       <c r="C23" t="n">
-        <v>5.979916019509598</v>
+        <v>5.417419106698937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4635605881050322</v>
+        <v>0.1163480463530261</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.48760642342348</v>
+        <v>79.9379712006567</v>
       </c>
       <c r="C24" t="n">
-        <v>5.521933845148701</v>
+        <v>3.94168383201734</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6659530199922394</v>
+        <v>0.1070519644702418</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38.76138427221955</v>
+        <v>80.59650578730843</v>
       </c>
       <c r="C25" t="n">
-        <v>1.58549501009368</v>
+        <v>7.471342645605185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3850320941136948</v>
+        <v>0.2570419456587991</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.51992771936395</v>
+        <v>81.35411616429909</v>
       </c>
       <c r="C26" t="n">
-        <v>6.551685818744785</v>
+        <v>6.351163469064558</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5016637189489886</v>
+        <v>0.3857618303178326</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.10500392321497</v>
+        <v>88.63340769675243</v>
       </c>
       <c r="C27" t="n">
-        <v>5.051761241927716</v>
+        <v>2.94448078357812</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5209436455967145</v>
+        <v>0.1058186264336617</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>42.51718667054845</v>
+        <v>89.99848649433439</v>
       </c>
       <c r="C28" t="n">
-        <v>5.209532223766362</v>
+        <v>6.697767967671212</v>
       </c>
       <c r="D28" t="n">
-        <v>0.550399280640586</v>
+        <v>0.3578644133093414</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44.16792734765981</v>
+        <v>92.06861607556694</v>
       </c>
       <c r="C29" t="n">
-        <v>6.359270402300194</v>
+        <v>8.514451693847464</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3398419087677749</v>
+        <v>0.4607486370854562</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44.6573080661997</v>
+        <v>92.29839020555531</v>
       </c>
       <c r="C30" t="n">
-        <v>6.008838294674314</v>
+        <v>3.929150014345567</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6576748104816555</v>
+        <v>0.1701384697458607</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44.70873514972821</v>
+        <v>99.59160106510312</v>
       </c>
       <c r="C31" t="n">
-        <v>2.473733838791209</v>
+        <v>3.674560226783017</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2418807679481456</v>
+        <v>0.1510395627312119</v>
       </c>
     </row>
     <row r="32">
@@ -875,489 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>45.53012792603186</v>
+        <v>99.6968534248783</v>
       </c>
       <c r="C32" t="n">
-        <v>7.63764480533347</v>
+        <v>12.66405711609787</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6660457869557194</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>45.62877571534096</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6.512743954404487</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.7878384777892032</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>47.66035471595132</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.546026947801507</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.6467730346543116</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>48.24604205414047</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.940498364463764</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.2125938925744101</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>49.32943951093991</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7.448133315532964</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.3272535962907011</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>51.70039897192238</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.470635658552824</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.2179279422259597</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>52.43144314224619</v>
-      </c>
-      <c r="C38" t="n">
-        <v>5.194098941031585</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.7425547134420187</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>56.83102326500885</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.960391621590041</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.8254486872352238</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>57.14973581261152</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.35794755691742</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5497627161347572</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>62.03123611973358</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8.880066115665219</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3720284524312482</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>62.31145454774536</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.481600301356294</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.1435485710161274</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>67.17829177213316</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3.106926693447249</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.3899172924775585</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>68.11309892802457</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.251839853895221</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.7477746823988183</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>71.52712916806318</v>
-      </c>
-      <c r="C45" t="n">
-        <v>5.42827690990191</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5933817370325881</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>71.6633658797934</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.386592012635035</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.3781010276620691</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>73.04098446270255</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.460641170723913</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.4426716265437054</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>73.15054380242914</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.691613400503515</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.3619323839114855</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>73.62584428106389</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.068855940990406</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.316535666397626</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>73.89041831212208</v>
-      </c>
-      <c r="C50" t="n">
-        <v>7.140951273262385</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5500864155585126</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>75.55197867254833</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.864816593341865</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4686486256312219</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>77.67351302039714</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.901224111335887</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.3346128281290076</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>82.49811999929466</v>
-      </c>
-      <c r="C53" t="n">
-        <v>5.920655710126125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.6545179568395448</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>87.05210749836948</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5.040648444305586</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.2414914925800539</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>88.65824955313276</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5.583679459882596</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.7035516806542034</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>88.67654061786939</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.557420342238325</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5093955563053623</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>91.30953597646489</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.846528340180068</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4841482372689014</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>92.18022773221804</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5.120609050508689</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.7899657040468683</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>92.72219411520874</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9.45496392277067</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.6661497025869469</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>92.82247851447453</v>
-      </c>
-      <c r="C60" t="n">
-        <v>5.270590238324105</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.6973736345519367</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>92.86625803947814</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.488126487309724</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.523768223494898</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>93.06259133337235</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6.20093464803249</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5677841684176874</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>95.74807902162649</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.007258607371421</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.3935386979322226</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>97.08129162330134</v>
-      </c>
-      <c r="C64" t="n">
-        <v>5.252286222586558</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.4749823678495103</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>97.29674781662156</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5.852546174975183</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.7278939941492518</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>98.57061200897699</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.425825750989987</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.1676099343921449</v>
+        <v>0.5302270543788421</v>
       </c>
     </row>
   </sheetData>
